--- a/3_Component_Results/CONSTR/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/CONSTR/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ME</t>
   </si>
@@ -44,18 +44,6 @@
   </si>
   <si>
     <t>Q3</t>
-  </si>
-  <si>
-    <t>Q4</t>
-  </si>
-  <si>
-    <t>Q5</t>
-  </si>
-  <si>
-    <t>Q6</t>
-  </si>
-  <si>
-    <t>Q7</t>
   </si>
 </sst>
 </file>
@@ -413,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,19 +432,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.765731240348512</v>
+        <v>0.6158830556516814</v>
       </c>
       <c r="C2">
-        <v>0.8193472646574206</v>
+        <v>2.146649694053442</v>
       </c>
       <c r="D2">
-        <v>1.131626571217327</v>
+        <v>6.552896975861514</v>
       </c>
       <c r="E2">
-        <v>1.063779380894989</v>
+        <v>2.559862686915357</v>
       </c>
       <c r="F2">
-        <v>0.7663073967863522</v>
+        <v>2.578463921477837</v>
       </c>
       <c r="G2">
         <v>14</v>
@@ -467,22 +455,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.7802485550893878</v>
+        <v>0.6396189027044379</v>
       </c>
       <c r="C3">
-        <v>0.8192559439450074</v>
+        <v>1.873773123107626</v>
       </c>
       <c r="D3">
-        <v>0.9682555170837051</v>
+        <v>5.190755540198163</v>
       </c>
       <c r="E3">
-        <v>0.9839997546156732</v>
+        <v>2.278322966613417</v>
       </c>
       <c r="F3">
-        <v>0.6240379410033335</v>
+        <v>2.30498088676128</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -490,22 +478,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.8698196098340377</v>
+        <v>1.171938100156769</v>
       </c>
       <c r="C4">
-        <v>0.9064184223641374</v>
+        <v>1.236930977686064</v>
       </c>
       <c r="D4">
-        <v>1.144224472611234</v>
+        <v>2.577565538177816</v>
       </c>
       <c r="E4">
-        <v>1.06968428641877</v>
+        <v>1.605479846705594</v>
       </c>
       <c r="F4">
-        <v>0.6502908319648395</v>
+        <v>1.20206154297295</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -513,111 +501,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.9029119104246942</v>
+        <v>0.3821426306726097</v>
       </c>
       <c r="C5">
-        <v>0.9142427130308893</v>
+        <v>0.3821426306726097</v>
       </c>
       <c r="D5">
-        <v>1.200580188438934</v>
+        <v>0.206649130868104</v>
       </c>
       <c r="E5">
-        <v>1.095709901588433</v>
+        <v>0.4545867693500373</v>
       </c>
       <c r="F5">
-        <v>0.651047845781997</v>
+        <v>0.3481842635465348</v>
       </c>
       <c r="G5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>1.045455835345255</v>
-      </c>
-      <c r="C6">
-        <v>1.045455835345255</v>
-      </c>
-      <c r="D6">
-        <v>1.398292021965009</v>
-      </c>
-      <c r="E6">
-        <v>1.182493983902248</v>
-      </c>
-      <c r="F6">
-        <v>0.5824413354412841</v>
-      </c>
-      <c r="G6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>1.133849096923349</v>
-      </c>
-      <c r="C7">
-        <v>1.133849096923349</v>
-      </c>
-      <c r="D7">
-        <v>1.598876284358134</v>
-      </c>
-      <c r="E7">
-        <v>1.264466798440407</v>
-      </c>
-      <c r="F7">
-        <v>0.6045435700247574</v>
-      </c>
-      <c r="G7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>1.030386502627865</v>
-      </c>
-      <c r="C8">
-        <v>1.030386502627865</v>
-      </c>
-      <c r="D8">
-        <v>1.296625077208898</v>
-      </c>
-      <c r="E8">
-        <v>1.138694461745071</v>
-      </c>
-      <c r="F8">
-        <v>0.5596769692256599</v>
-      </c>
-      <c r="G8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9">
-        <v>0.758362602159722</v>
-      </c>
-      <c r="C9">
-        <v>0.758362602159722</v>
-      </c>
-      <c r="D9">
-        <v>0.5751138363544647</v>
-      </c>
-      <c r="E9">
-        <v>0.758362602159722</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/CONSTR/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/CONSTR/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
@@ -432,19 +432,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.6158830556516814</v>
+        <v>1.175720741260731</v>
       </c>
       <c r="C2">
-        <v>2.146649694053442</v>
+        <v>1.175720741260731</v>
       </c>
       <c r="D2">
-        <v>6.552896975861514</v>
+        <v>2.00046158807684</v>
       </c>
       <c r="E2">
-        <v>2.559862686915357</v>
+        <v>1.414376748987638</v>
       </c>
       <c r="F2">
-        <v>2.578463921477837</v>
+        <v>0.8158993420687196</v>
       </c>
       <c r="G2">
         <v>14</v>
@@ -455,19 +455,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.6396189027044379</v>
+        <v>1.179154357706104</v>
       </c>
       <c r="C3">
-        <v>1.873773123107626</v>
+        <v>1.179154357706104</v>
       </c>
       <c r="D3">
-        <v>5.190755540198163</v>
+        <v>1.839172490612837</v>
       </c>
       <c r="E3">
-        <v>2.278322966613417</v>
+        <v>1.356160938315522</v>
       </c>
       <c r="F3">
-        <v>2.30498088676128</v>
+        <v>0.7061377669450614</v>
       </c>
       <c r="G3">
         <v>10</v>
@@ -478,19 +478,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>1.171938100156769</v>
+        <v>0.9948462645758421</v>
       </c>
       <c r="C4">
-        <v>1.236930977686064</v>
+        <v>0.9948462645758421</v>
       </c>
       <c r="D4">
-        <v>2.577565538177816</v>
+        <v>1.24218013291981</v>
       </c>
       <c r="E4">
-        <v>1.605479846705594</v>
+        <v>1.114531351250296</v>
       </c>
       <c r="F4">
-        <v>1.20206154297295</v>
+        <v>0.5504118924361679</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -501,19 +501,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.3821426306726097</v>
+        <v>1.219879926150666</v>
       </c>
       <c r="C5">
-        <v>0.3821426306726097</v>
+        <v>1.219879926150666</v>
       </c>
       <c r="D5">
-        <v>0.206649130868104</v>
+        <v>1.817306308435718</v>
       </c>
       <c r="E5">
-        <v>0.4545867693500373</v>
+        <v>1.348075038132417</v>
       </c>
       <c r="F5">
-        <v>0.3481842635465348</v>
+        <v>0.8114176165333894</v>
       </c>
       <c r="G5">
         <v>2</v>

--- a/3_Component_Results/CONSTR/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/CONSTR/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ME</t>
   </si>
@@ -44,6 +44,24 @@
   </si>
   <si>
     <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Q5</t>
+  </si>
+  <si>
+    <t>Q6</t>
+  </si>
+  <si>
+    <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
   </si>
 </sst>
 </file>
@@ -401,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>1.175720741260731</v>
+        <v>0.2725968450730477</v>
       </c>
       <c r="C2">
-        <v>1.175720741260731</v>
+        <v>1.369443197887399</v>
       </c>
       <c r="D2">
-        <v>2.00046158807684</v>
+        <v>3.703882783350689</v>
       </c>
       <c r="E2">
-        <v>1.414376748987638</v>
+        <v>1.92454742299344</v>
       </c>
       <c r="F2">
-        <v>0.8158993420687196</v>
+        <v>1.926195975934131</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -455,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>1.179154357706104</v>
+        <v>0.5701128739199846</v>
       </c>
       <c r="C3">
-        <v>1.179154357706104</v>
+        <v>1.3313120252481</v>
       </c>
       <c r="D3">
-        <v>1.839172490612837</v>
+        <v>2.906150528145031</v>
       </c>
       <c r="E3">
-        <v>1.356160938315522</v>
+        <v>1.704743537352476</v>
       </c>
       <c r="F3">
-        <v>0.7061377669450614</v>
+        <v>1.624741117567991</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -478,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.9948462645758421</v>
+        <v>0.1129289630813743</v>
       </c>
       <c r="C4">
-        <v>0.9948462645758421</v>
+        <v>1.386823689668745</v>
       </c>
       <c r="D4">
-        <v>1.24218013291981</v>
+        <v>3.558153505617485</v>
       </c>
       <c r="E4">
-        <v>1.114531351250296</v>
+        <v>1.886306842912225</v>
       </c>
       <c r="F4">
-        <v>0.5504118924361679</v>
+        <v>1.904692030384583</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -501,22 +519,160 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>1.219879926150666</v>
+        <v>0.5895283849882742</v>
       </c>
       <c r="C5">
-        <v>1.219879926150666</v>
+        <v>1.252578073705098</v>
       </c>
       <c r="D5">
-        <v>1.817306308435718</v>
+        <v>2.867526754757556</v>
       </c>
       <c r="E5">
-        <v>1.348075038132417</v>
+        <v>1.693377322027656</v>
       </c>
       <c r="F5">
-        <v>0.8114176165333894</v>
+        <v>1.606232434672746</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>0.3216123161464985</v>
+      </c>
+      <c r="C6">
+        <v>1.332046485036206</v>
+      </c>
+      <c r="D6">
+        <v>2.890078795422161</v>
+      </c>
+      <c r="E6">
+        <v>1.7000231749662</v>
+      </c>
+      <c r="F6">
+        <v>1.689559483416096</v>
+      </c>
+      <c r="G6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>0.6210192535602802</v>
+      </c>
+      <c r="C7">
+        <v>1.275460222691501</v>
+      </c>
+      <c r="D7">
+        <v>2.981647775462735</v>
+      </c>
+      <c r="E7">
+        <v>1.726744849554425</v>
+      </c>
+      <c r="F7">
+        <v>1.631221148012869</v>
+      </c>
+      <c r="G7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>0.283533284100205</v>
+      </c>
+      <c r="C8">
+        <v>1.331940253175582</v>
+      </c>
+      <c r="D8">
+        <v>2.923668707468624</v>
+      </c>
+      <c r="E8">
+        <v>1.709873886422219</v>
+      </c>
+      <c r="F8">
+        <v>1.707683266217407</v>
+      </c>
+      <c r="G8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>0.7277015715620371</v>
+      </c>
+      <c r="C9">
+        <v>1.303080842420364</v>
+      </c>
+      <c r="D9">
+        <v>3.076077403806762</v>
+      </c>
+      <c r="E9">
+        <v>1.753874968122518</v>
+      </c>
+      <c r="F9">
+        <v>1.61664520434304</v>
+      </c>
+      <c r="G9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>0.2602223904082975</v>
+      </c>
+      <c r="C10">
+        <v>1.380918912029693</v>
+      </c>
+      <c r="D10">
+        <v>3.046783774178897</v>
+      </c>
+      <c r="E10">
+        <v>1.745503874008562</v>
+      </c>
+      <c r="F10">
+        <v>1.749166497297726</v>
+      </c>
+      <c r="G10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>0.8291202883662652</v>
+      </c>
+      <c r="C11">
+        <v>1.24814772483617</v>
+      </c>
+      <c r="D11">
+        <v>2.865889069582671</v>
+      </c>
+      <c r="E11">
+        <v>1.692893697070986</v>
+      </c>
+      <c r="F11">
+        <v>1.496315835171674</v>
+      </c>
+      <c r="G11">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/CONSTR/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/CONSTR/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.2725968450730477</v>
+        <v>0.3731803534348715</v>
       </c>
       <c r="C2">
-        <v>1.369443197887399</v>
+        <v>1.522700897529608</v>
       </c>
       <c r="D2">
-        <v>3.703882783350689</v>
+        <v>4.158686648532057</v>
       </c>
       <c r="E2">
-        <v>1.92454742299344</v>
+        <v>2.039285818254042</v>
       </c>
       <c r="F2">
-        <v>1.926195975934131</v>
+        <v>2.032504295995627</v>
       </c>
       <c r="G2">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.5701128739199846</v>
+        <v>-0.1240574867935324</v>
       </c>
       <c r="C3">
-        <v>1.3313120252481</v>
+        <v>1.460950150426982</v>
       </c>
       <c r="D3">
-        <v>2.906150528145031</v>
+        <v>3.796378227175162</v>
       </c>
       <c r="E3">
-        <v>1.704743537352476</v>
+        <v>1.948429682378905</v>
       </c>
       <c r="F3">
-        <v>1.624741117567991</v>
+        <v>1.972058872036625</v>
       </c>
       <c r="G3">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.1129289630813743</v>
+        <v>0.4934895688106978</v>
       </c>
       <c r="C4">
-        <v>1.386823689668745</v>
+        <v>1.327481032087486</v>
       </c>
       <c r="D4">
-        <v>3.558153505617485</v>
+        <v>3.305097368472943</v>
       </c>
       <c r="E4">
-        <v>1.886306842912225</v>
+        <v>1.817992675582865</v>
       </c>
       <c r="F4">
-        <v>1.904692030384583</v>
+        <v>1.77527785305137</v>
       </c>
       <c r="G4">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.5895283849882742</v>
+        <v>-0.08377265579416678</v>
       </c>
       <c r="C5">
-        <v>1.252578073705098</v>
+        <v>1.555732842827626</v>
       </c>
       <c r="D5">
-        <v>2.867526754757556</v>
+        <v>4.194765129124354</v>
       </c>
       <c r="E5">
-        <v>1.693377322027656</v>
+        <v>2.048112577258475</v>
       </c>
       <c r="F5">
-        <v>1.606232434672746</v>
+        <v>2.077173248366187</v>
       </c>
       <c r="G5">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.3216123161464985</v>
+        <v>0.4363569993891649</v>
       </c>
       <c r="C6">
-        <v>1.332046485036206</v>
+        <v>1.325938237731197</v>
       </c>
       <c r="D6">
-        <v>2.890078795422161</v>
+        <v>3.276676303256219</v>
       </c>
       <c r="E6">
-        <v>1.7000231749662</v>
+        <v>1.810159192793888</v>
       </c>
       <c r="F6">
-        <v>1.689559483416096</v>
+        <v>1.784016472626006</v>
       </c>
       <c r="G6">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.6210192535602802</v>
+        <v>0.09168004481066386</v>
       </c>
       <c r="C7">
-        <v>1.275460222691501</v>
+        <v>1.405118573146903</v>
       </c>
       <c r="D7">
-        <v>2.981647775462735</v>
+        <v>3.289626680765243</v>
       </c>
       <c r="E7">
-        <v>1.726744849554425</v>
+        <v>1.813732803023985</v>
       </c>
       <c r="F7">
-        <v>1.631221148012869</v>
+        <v>1.840398680552495</v>
       </c>
       <c r="G7">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.283533284100205</v>
+        <v>0.4864221507894972</v>
       </c>
       <c r="C8">
-        <v>1.331940253175582</v>
+        <v>1.346678349091636</v>
       </c>
       <c r="D8">
-        <v>2.923668707468624</v>
+        <v>3.457793333901256</v>
       </c>
       <c r="E8">
-        <v>1.709873886422219</v>
+        <v>1.859514273648163</v>
       </c>
       <c r="F8">
-        <v>1.707683266217407</v>
+        <v>1.824434081926045</v>
       </c>
       <c r="G8">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.7277015715620371</v>
+        <v>0.00377647522211878</v>
       </c>
       <c r="C9">
-        <v>1.303080842420364</v>
+        <v>1.4050466251974</v>
       </c>
       <c r="D9">
-        <v>3.076077403806762</v>
+        <v>3.34404499931418</v>
       </c>
       <c r="E9">
-        <v>1.753874968122518</v>
+        <v>1.828673015963811</v>
       </c>
       <c r="F9">
-        <v>1.61664520434304</v>
+        <v>1.85993068212021</v>
       </c>
       <c r="G9">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.2602223904082975</v>
+        <v>0.5773184669214476</v>
       </c>
       <c r="C10">
-        <v>1.380918912029693</v>
+        <v>1.354169541096897</v>
       </c>
       <c r="D10">
-        <v>3.046783774178897</v>
+        <v>3.547916642886769</v>
       </c>
       <c r="E10">
-        <v>1.745503874008562</v>
+        <v>1.883591421430552</v>
       </c>
       <c r="F10">
-        <v>1.749166497297726</v>
+        <v>1.824671994873412</v>
       </c>
       <c r="G10">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.8291202883662652</v>
+        <v>-0.06534739717242485</v>
       </c>
       <c r="C11">
-        <v>1.24814772483617</v>
+        <v>1.454355996855039</v>
       </c>
       <c r="D11">
-        <v>2.865889069582671</v>
+        <v>3.515063405020061</v>
       </c>
       <c r="E11">
-        <v>1.692893697070986</v>
+        <v>1.874850235357497</v>
       </c>
       <c r="F11">
-        <v>1.496315835171674</v>
+        <v>1.908093943603871</v>
       </c>
       <c r="G11">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/CONSTR/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/CONSTR/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,19 +450,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.3731803534348715</v>
+        <v>0.1324920508790497</v>
       </c>
       <c r="C2">
-        <v>1.522700897529608</v>
+        <v>0.6801064610094967</v>
       </c>
       <c r="D2">
-        <v>4.158686648532057</v>
+        <v>0.7267164607369162</v>
       </c>
       <c r="E2">
-        <v>2.039285818254042</v>
+        <v>0.852476662869381</v>
       </c>
       <c r="F2">
-        <v>2.032504295995627</v>
+        <v>0.8537337233857398</v>
       </c>
       <c r="G2">
         <v>37</v>
@@ -473,19 +473,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.1240574867935324</v>
+        <v>-0.04841680754771548</v>
       </c>
       <c r="C3">
-        <v>1.460950150426982</v>
+        <v>0.3477809521122848</v>
       </c>
       <c r="D3">
-        <v>3.796378227175162</v>
+        <v>0.2177941722895725</v>
       </c>
       <c r="E3">
-        <v>1.948429682378905</v>
+        <v>0.466684231884443</v>
       </c>
       <c r="F3">
-        <v>1.972058872036625</v>
+        <v>0.4707501448694886</v>
       </c>
       <c r="G3">
         <v>36</v>
@@ -496,19 +496,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.4934895688106978</v>
+        <v>0.01477763937554008</v>
       </c>
       <c r="C4">
-        <v>1.327481032087486</v>
+        <v>0.3102952347470811</v>
       </c>
       <c r="D4">
-        <v>3.305097368472943</v>
+        <v>0.2442608020272067</v>
       </c>
       <c r="E4">
-        <v>1.817992675582865</v>
+        <v>0.4942274800405241</v>
       </c>
       <c r="F4">
-        <v>1.77527785305137</v>
+        <v>0.5012186566130965</v>
       </c>
       <c r="G4">
         <v>35</v>
@@ -519,19 +519,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.08377265579416678</v>
+        <v>0.02499985007770201</v>
       </c>
       <c r="C5">
-        <v>1.555732842827626</v>
+        <v>0.2284995368109722</v>
       </c>
       <c r="D5">
-        <v>4.194765129124354</v>
+        <v>0.1410546628481495</v>
       </c>
       <c r="E5">
-        <v>2.048112577258475</v>
+        <v>0.3755724468703068</v>
       </c>
       <c r="F5">
-        <v>2.077173248366187</v>
+        <v>0.3803749661848529</v>
       </c>
       <c r="G5">
         <v>34</v>
@@ -542,19 +542,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.4363569993891649</v>
+        <v>0.01552678163652422</v>
       </c>
       <c r="C6">
-        <v>1.325938237731197</v>
+        <v>0.2186393281089528</v>
       </c>
       <c r="D6">
-        <v>3.276676303256219</v>
+        <v>0.1437800516675365</v>
       </c>
       <c r="E6">
-        <v>1.810159192793888</v>
+        <v>0.3791834010970635</v>
       </c>
       <c r="F6">
-        <v>1.784016472626006</v>
+        <v>0.3847396048687139</v>
       </c>
       <c r="G6">
         <v>33</v>
@@ -565,19 +565,19 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.09168004481066386</v>
+        <v>-0.0119334525022557</v>
       </c>
       <c r="C7">
-        <v>1.405118573146903</v>
+        <v>0.1981776991198604</v>
       </c>
       <c r="D7">
-        <v>3.289626680765243</v>
+        <v>0.1020070050587175</v>
       </c>
       <c r="E7">
-        <v>1.813732803023985</v>
+        <v>0.3193853551099635</v>
       </c>
       <c r="F7">
-        <v>1.840398680552495</v>
+        <v>0.3242692593152658</v>
       </c>
       <c r="G7">
         <v>32</v>
@@ -588,19 +588,19 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.4864221507894972</v>
+        <v>-0.01677488082309181</v>
       </c>
       <c r="C8">
-        <v>1.346678349091636</v>
+        <v>0.1799538174685288</v>
       </c>
       <c r="D8">
-        <v>3.457793333901256</v>
+        <v>0.08530154097658028</v>
       </c>
       <c r="E8">
-        <v>1.859514273648163</v>
+        <v>0.2920642754199498</v>
       </c>
       <c r="F8">
-        <v>1.824434081926045</v>
+        <v>0.2964020060013367</v>
       </c>
       <c r="G8">
         <v>31</v>
@@ -611,19 +611,19 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.00377647522211878</v>
+        <v>-0.06600932967003598</v>
       </c>
       <c r="C9">
-        <v>1.4050466251974</v>
+        <v>0.1620322887144097</v>
       </c>
       <c r="D9">
-        <v>3.34404499931418</v>
+        <v>0.06292288864506333</v>
       </c>
       <c r="E9">
-        <v>1.828673015963811</v>
+        <v>0.2508443514314471</v>
       </c>
       <c r="F9">
-        <v>1.85993068212021</v>
+        <v>0.2461405339573363</v>
       </c>
       <c r="G9">
         <v>30</v>
@@ -634,19 +634,19 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.5773184669214476</v>
+        <v>-0.07856120306006101</v>
       </c>
       <c r="C10">
-        <v>1.354169541096897</v>
+        <v>0.135377195998987</v>
       </c>
       <c r="D10">
-        <v>3.547916642886769</v>
+        <v>0.04919957859851953</v>
       </c>
       <c r="E10">
-        <v>1.883591421430552</v>
+        <v>0.221809780213857</v>
       </c>
       <c r="F10">
-        <v>1.824671994873412</v>
+        <v>0.2111028661912064</v>
       </c>
       <c r="G10">
         <v>29</v>
@@ -657,19 +657,19 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.06534739717242485</v>
+        <v>-0.04670898719852253</v>
       </c>
       <c r="C11">
-        <v>1.454355996855039</v>
+        <v>0.1237624838354553</v>
       </c>
       <c r="D11">
-        <v>3.515063405020061</v>
+        <v>0.03272848132366554</v>
       </c>
       <c r="E11">
-        <v>1.874850235357497</v>
+        <v>0.1809101470997841</v>
       </c>
       <c r="F11">
-        <v>1.908093943603871</v>
+        <v>0.1779834627648297</v>
       </c>
       <c r="G11">
         <v>28</v>

--- a/3_Component_Results/CONSTR/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/CONSTR/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1324920508790497</v>
+        <v>0.4141732146861696</v>
       </c>
       <c r="C2">
-        <v>0.6801064610094967</v>
+        <v>1.605476919376253</v>
       </c>
       <c r="D2">
-        <v>0.7267164607369162</v>
+        <v>4.285373823189503</v>
       </c>
       <c r="E2">
-        <v>0.852476662869381</v>
+        <v>2.070114446881984</v>
       </c>
       <c r="F2">
-        <v>0.8537337233857398</v>
+        <v>2.050671332274695</v>
       </c>
       <c r="G2">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04841680754771548</v>
+        <v>-0.01716789264613588</v>
       </c>
       <c r="C3">
-        <v>0.3477809521122848</v>
+        <v>1.651420560915961</v>
       </c>
       <c r="D3">
-        <v>0.2177941722895725</v>
+        <v>4.541767649565558</v>
       </c>
       <c r="E3">
-        <v>0.466684231884443</v>
+        <v>2.131142334421978</v>
       </c>
       <c r="F3">
-        <v>0.4707501448694886</v>
+        <v>2.155153870726067</v>
       </c>
       <c r="G3">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.01477763937554008</v>
+        <v>0.4406255020385922</v>
       </c>
       <c r="C4">
-        <v>0.3102952347470811</v>
+        <v>1.625614656034232</v>
       </c>
       <c r="D4">
-        <v>0.2442608020272067</v>
+        <v>4.490980664127665</v>
       </c>
       <c r="E4">
-        <v>0.4942274800405241</v>
+        <v>2.119193399415841</v>
       </c>
       <c r="F4">
-        <v>0.5012186566130965</v>
+        <v>2.096844320931413</v>
       </c>
       <c r="G4">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.02499985007770201</v>
+        <v>0.03988787390244446</v>
       </c>
       <c r="C5">
-        <v>0.2284995368109722</v>
+        <v>1.807057129213736</v>
       </c>
       <c r="D5">
-        <v>0.1410546628481495</v>
+        <v>5.145130224049834</v>
       </c>
       <c r="E5">
-        <v>0.3755724468703068</v>
+        <v>2.268287949985591</v>
       </c>
       <c r="F5">
-        <v>0.3803749661848529</v>
+        <v>2.294777636324286</v>
       </c>
       <c r="G5">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01552678163652422</v>
+        <v>0.455682680408077</v>
       </c>
       <c r="C6">
-        <v>0.2186393281089528</v>
+        <v>1.62477962444376</v>
       </c>
       <c r="D6">
-        <v>0.1437800516675365</v>
+        <v>4.358939589200301</v>
       </c>
       <c r="E6">
-        <v>0.3791834010970635</v>
+        <v>2.087807364006627</v>
       </c>
       <c r="F6">
-        <v>0.3847396048687139</v>
+        <v>2.062169714142621</v>
       </c>
       <c r="G6">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.0119334525022557</v>
+        <v>0.1777087621310496</v>
       </c>
       <c r="C7">
-        <v>0.1981776991198604</v>
+        <v>1.698096300376475</v>
       </c>
       <c r="D7">
-        <v>0.1020070050587175</v>
+        <v>4.364176648270135</v>
       </c>
       <c r="E7">
-        <v>0.3193853551099635</v>
+        <v>2.08906118825422</v>
       </c>
       <c r="F7">
-        <v>0.3242692593152658</v>
+        <v>2.107346945862329</v>
       </c>
       <c r="G7">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.01677488082309181</v>
+        <v>0.5039136335280825</v>
       </c>
       <c r="C8">
-        <v>0.1799538174685288</v>
+        <v>1.664940487861543</v>
       </c>
       <c r="D8">
-        <v>0.08530154097658028</v>
+        <v>4.498869753835015</v>
       </c>
       <c r="E8">
-        <v>0.2920642754199498</v>
+        <v>2.121053925253909</v>
       </c>
       <c r="F8">
-        <v>0.2964020060013367</v>
+        <v>2.086572653845029</v>
       </c>
       <c r="G8">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.06600932967003598</v>
+        <v>0.1430518963212211</v>
       </c>
       <c r="C9">
-        <v>0.1620322887144097</v>
+        <v>1.71910815220499</v>
       </c>
       <c r="D9">
-        <v>0.06292288864506333</v>
+        <v>4.463347462520725</v>
       </c>
       <c r="E9">
-        <v>0.2508443514314471</v>
+        <v>2.112663594262164</v>
       </c>
       <c r="F9">
-        <v>0.2461405339573363</v>
+        <v>2.135369196980537</v>
       </c>
       <c r="G9">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07856120306006101</v>
+        <v>0.5887292808226858</v>
       </c>
       <c r="C10">
-        <v>0.135377195998987</v>
+        <v>1.678991187388869</v>
       </c>
       <c r="D10">
-        <v>0.04919957859851953</v>
+        <v>4.640656357710296</v>
       </c>
       <c r="E10">
-        <v>0.221809780213857</v>
+        <v>2.154218270675071</v>
       </c>
       <c r="F10">
-        <v>0.2111028661912064</v>
+        <v>2.100026121338619</v>
       </c>
       <c r="G10">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04670898719852253</v>
+        <v>0.1084470123171574</v>
       </c>
       <c r="C11">
-        <v>0.1237624838354553</v>
+        <v>1.756824810856007</v>
       </c>
       <c r="D11">
-        <v>0.03272848132366554</v>
+        <v>4.640724073720614</v>
       </c>
       <c r="E11">
-        <v>0.1809101470997841</v>
+        <v>2.15423398769043</v>
       </c>
       <c r="F11">
-        <v>0.1779834627648297</v>
+        <v>2.181179871918736</v>
       </c>
       <c r="G11">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/CONSTR/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/CONSTR/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.1777087621310496</v>
+        <v>0.2458971023086367</v>
       </c>
       <c r="C7">
-        <v>1.698096300376475</v>
+        <v>1.638103339533811</v>
       </c>
       <c r="D7">
-        <v>4.364176648270135</v>
+        <v>4.276773671534449</v>
       </c>
       <c r="E7">
-        <v>2.08906118825422</v>
+        <v>2.068036187191716</v>
       </c>
       <c r="F7">
-        <v>2.107346945862329</v>
+        <v>2.082492313949006</v>
       </c>
       <c r="G7">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.5039136335280825</v>
+        <v>0.3197323091405776</v>
       </c>
       <c r="C8">
-        <v>1.664940487861543</v>
+        <v>1.567098658972371</v>
       </c>
       <c r="D8">
-        <v>4.498869753835015</v>
+        <v>4.185152986416608</v>
       </c>
       <c r="E8">
-        <v>2.121053925253909</v>
+        <v>2.045764645900551</v>
       </c>
       <c r="F8">
-        <v>2.086572653845029</v>
+        <v>2.050124445948619</v>
       </c>
       <c r="G8">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.1430518963212211</v>
+        <v>1.347797958024911</v>
       </c>
       <c r="C9">
-        <v>1.71910815220499</v>
+        <v>1.654972518212459</v>
       </c>
       <c r="D9">
-        <v>4.463347462520725</v>
+        <v>4.529824585228557</v>
       </c>
       <c r="E9">
-        <v>2.112663594262164</v>
+        <v>2.128338456455777</v>
       </c>
       <c r="F9">
-        <v>2.135369196980537</v>
+        <v>1.689990734814975</v>
       </c>
       <c r="G9">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.5887292808226858</v>
+        <v>0.976162992370311</v>
       </c>
       <c r="C10">
-        <v>1.678991187388869</v>
+        <v>1.401551600733488</v>
       </c>
       <c r="D10">
-        <v>4.640656357710296</v>
+        <v>3.042040935800302</v>
       </c>
       <c r="E10">
-        <v>2.154218270675071</v>
+        <v>1.744144757696534</v>
       </c>
       <c r="F10">
-        <v>2.100026121338619</v>
+        <v>1.504407627762786</v>
       </c>
       <c r="G10">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.1084470123171574</v>
+        <v>0.8645624131408338</v>
       </c>
       <c r="C11">
-        <v>1.756824810856007</v>
+        <v>1.625693303335647</v>
       </c>
       <c r="D11">
-        <v>4.640724073720614</v>
+        <v>3.888939690769033</v>
       </c>
       <c r="E11">
-        <v>2.15423398769043</v>
+        <v>1.972039474952019</v>
       </c>
       <c r="F11">
-        <v>2.181179871918736</v>
+        <v>1.981625445358283</v>
       </c>
       <c r="G11">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
